--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fgf7-Fgfr1.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.111425041361</v>
+        <v>13.79659733333333</v>
       </c>
       <c r="H2">
-        <v>13.111425041361</v>
+        <v>41.389792</v>
       </c>
       <c r="I2">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="J2">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.35314450536564</v>
+        <v>4.675378666666666</v>
       </c>
       <c r="N2">
-        <v>2.35314450536564</v>
+        <v>14.026136</v>
       </c>
       <c r="O2">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="P2">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="Q2">
-        <v>30.8530777935921</v>
+        <v>64.50431684485687</v>
       </c>
       <c r="R2">
-        <v>30.8530777935921</v>
+        <v>580.5388516037119</v>
       </c>
       <c r="S2">
-        <v>0.0190040795005762</v>
+        <v>0.03492649194632279</v>
       </c>
       <c r="T2">
-        <v>0.0190040795005762</v>
+        <v>0.03492649194632279</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.111425041361</v>
+        <v>13.79659733333333</v>
       </c>
       <c r="H3">
-        <v>13.111425041361</v>
+        <v>41.389792</v>
       </c>
       <c r="I3">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="J3">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.7364127242719</v>
+        <v>82.95722966666666</v>
       </c>
       <c r="N3">
-        <v>82.7364127242719</v>
+        <v>248.871689</v>
       </c>
       <c r="O3">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="P3">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="Q3">
-        <v>1084.792273625397</v>
+        <v>1144.527493599854</v>
       </c>
       <c r="R3">
-        <v>1084.792273625397</v>
+        <v>10300.74744239869</v>
       </c>
       <c r="S3">
-        <v>0.6681822393054581</v>
+        <v>0.6197155825044226</v>
       </c>
       <c r="T3">
-        <v>0.6681822393054581</v>
+        <v>0.6197155825044226</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.111425041361</v>
+        <v>13.79659733333333</v>
       </c>
       <c r="H4">
-        <v>13.111425041361</v>
+        <v>41.389792</v>
       </c>
       <c r="I4">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="J4">
-        <v>0.950064377000635</v>
+        <v>0.9485830781324925</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.5503825745971</v>
+        <v>39.34793966666667</v>
       </c>
       <c r="N4">
-        <v>32.5503825745971</v>
+        <v>118.043819</v>
       </c>
       <c r="O4">
-        <v>0.2766949951586544</v>
+        <v>0.3098737585119468</v>
       </c>
       <c r="P4">
-        <v>0.2766949951586544</v>
+        <v>0.3098737585119468</v>
       </c>
       <c r="Q4">
-        <v>426.7819011944532</v>
+        <v>542.8676794772942</v>
       </c>
       <c r="R4">
-        <v>426.7819011944532</v>
+        <v>4885.809115295648</v>
       </c>
       <c r="S4">
-        <v>0.2628780581946007</v>
+        <v>0.2939410036817472</v>
       </c>
       <c r="T4">
-        <v>0.2628780581946007</v>
+        <v>0.2939410036817471</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.689139803259248</v>
+        <v>0.7478296666666666</v>
       </c>
       <c r="H5">
-        <v>0.689139803259248</v>
+        <v>2.243489</v>
       </c>
       <c r="I5">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="J5">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.35314450536564</v>
+        <v>4.675378666666666</v>
       </c>
       <c r="N5">
-        <v>2.35314450536564</v>
+        <v>14.026136</v>
       </c>
       <c r="O5">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="P5">
-        <v>0.02000293870671408</v>
+        <v>0.03681964474327726</v>
       </c>
       <c r="Q5">
-        <v>1.621645541468257</v>
+        <v>3.496386869833777</v>
       </c>
       <c r="R5">
-        <v>1.621645541468257</v>
+        <v>31.467481828504</v>
       </c>
       <c r="S5">
-        <v>0.0009988592061378817</v>
+        <v>0.001893152796954471</v>
       </c>
       <c r="T5">
-        <v>0.0009988592061378817</v>
+        <v>0.001893152796954471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.689139803259248</v>
+        <v>0.7478296666666666</v>
       </c>
       <c r="H6">
-        <v>0.689139803259248</v>
+        <v>2.243489</v>
       </c>
       <c r="I6">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="J6">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>82.7364127242719</v>
+        <v>82.95722966666666</v>
       </c>
       <c r="N6">
-        <v>82.7364127242719</v>
+        <v>248.871689</v>
       </c>
       <c r="O6">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="P6">
-        <v>0.7033020661346315</v>
+        <v>0.653306596744776</v>
       </c>
       <c r="Q6">
-        <v>57.01695518718068</v>
+        <v>62.03787740921344</v>
       </c>
       <c r="R6">
-        <v>57.01695518718068</v>
+        <v>558.340896682921</v>
       </c>
       <c r="S6">
-        <v>0.03511982682917348</v>
+        <v>0.03359101424035339</v>
       </c>
       <c r="T6">
-        <v>0.03511982682917348</v>
+        <v>0.03359101424035339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.689139803259248</v>
+        <v>0.7478296666666666</v>
       </c>
       <c r="H7">
-        <v>0.689139803259248</v>
+        <v>2.243489</v>
       </c>
       <c r="I7">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="J7">
-        <v>0.04993562299936507</v>
+        <v>0.05141692186750751</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.5503825745971</v>
+        <v>39.34793966666667</v>
       </c>
       <c r="N7">
-        <v>32.5503825745971</v>
+        <v>118.043819</v>
       </c>
       <c r="O7">
-        <v>0.2766949951586544</v>
+        <v>0.3098737585119468</v>
       </c>
       <c r="P7">
-        <v>0.2766949951586544</v>
+        <v>0.3098737585119468</v>
       </c>
       <c r="Q7">
-        <v>22.4317642434711</v>
+        <v>29.42555660494344</v>
       </c>
       <c r="R7">
-        <v>22.4317642434711</v>
+        <v>264.830009444491</v>
       </c>
       <c r="S7">
-        <v>0.01381693696405371</v>
+        <v>0.01593275483019966</v>
       </c>
       <c r="T7">
-        <v>0.01381693696405371</v>
+        <v>0.01593275483019966</v>
       </c>
     </row>
   </sheetData>
